--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/11 PRUEBA DE EGRESOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/11 PRUEBA DE EGRESOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610D65F9-1C93-49F0-AD80-8750D9646726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD63285B-15DF-45A9-9760-5E2C1CB40E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
   <si>
     <t>EVALUACION DEL CONTROL INTERNO</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                       Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.  Cheque no negociable y Cheque autorizado</t>
@@ -300,13 +297,19 @@
     <t xml:space="preserve">                            Auditor </t>
   </si>
   <si>
-    <t xml:space="preserve">                         PRUEBA DE EGRESOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     Auditoria de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                Entidad XXXXXXXX</t>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>PRUEBA DE EGRESOS</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>A-11</t>
   </si>
 </sst>
 </file>
@@ -368,12 +371,6 @@
       <sz val="12"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -448,6 +445,13 @@
       <sz val="9"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -574,8 +578,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -585,11 +589,11 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -597,30 +601,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -629,47 +630,52 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,90 +1087,6 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04A2BAD-0F34-4A29-8AB6-CA8A718EB9D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19316700" y="161925"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1200" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>A-11</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-GT" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1811,7 +1733,7 @@
   <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1849,24 +1771,28 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="40"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="G3" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="W3" s="1"/>
+      <c r="F3" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="W3" s="57" t="s">
+        <v>80</v>
+      </c>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="19.5" x14ac:dyDescent="0.4">
@@ -1875,27 +1801,27 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="F4" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
       <c r="W4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="14"/>
+      <c r="F5" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="1"/>
       <c r="W5" s="3" t="s">
         <v>13</v>
@@ -1921,101 +1847,94 @@
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="52"/>
       <c r="W7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="X7" s="18"/>
     </row>
     <row r="8" spans="1:24" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="53" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="53" t="s">
+      <c r="R8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="53" t="s">
+      <c r="S8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="54"/>
-      <c r="U8" s="55"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="51"/>
     </row>
     <row r="9" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
       </c>
       <c r="I9">
         <v>6001</v>
@@ -2056,36 +1975,36 @@
       <c r="U9" s="35">
         <v>12</v>
       </c>
-      <c r="V9" s="56" t="s">
+      <c r="V9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="W9" s="57"/>
+      <c r="W9" s="53"/>
       <c r="X9" s="36"/>
     </row>
     <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
       </c>
       <c r="I10">
         <v>6002</v>
@@ -2108,28 +2027,28 @@
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
       </c>
       <c r="I11">
         <v>6003</v>
@@ -2152,28 +2071,28 @@
     </row>
     <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
       </c>
       <c r="I12">
         <v>6004</v>
@@ -2196,28 +2115,28 @@
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
         <v>65</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
       </c>
       <c r="I13">
         <v>6005</v>
@@ -2240,28 +2159,28 @@
     </row>
     <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
       </c>
       <c r="I14">
         <v>6001</v>
@@ -2284,28 +2203,28 @@
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
       </c>
       <c r="I15">
         <v>6002</v>
@@ -2328,28 +2247,28 @@
     </row>
     <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>55</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
       </c>
       <c r="I16">
         <v>6003</v>
@@ -2372,28 +2291,28 @@
     </row>
     <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>60</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>62</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
       </c>
       <c r="I17">
         <v>6004</v>
@@ -2416,28 +2335,28 @@
     </row>
     <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
         <v>65</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>67</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>68</v>
-      </c>
-      <c r="H18" t="s">
-        <v>69</v>
       </c>
       <c r="I18">
         <v>6005</v>
@@ -2460,28 +2379,28 @@
     </row>
     <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
       </c>
       <c r="I19">
         <v>6001</v>
@@ -2504,28 +2423,28 @@
     </row>
     <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>48</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>51</v>
       </c>
       <c r="I20">
         <v>6002</v>
@@ -2548,28 +2467,28 @@
     </row>
     <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
         <v>53</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>55</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>56</v>
-      </c>
-      <c r="H21" t="s">
-        <v>57</v>
       </c>
       <c r="I21">
         <v>6003</v>
@@ -2592,28 +2511,28 @@
     </row>
     <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>61</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>62</v>
-      </c>
-      <c r="H22" t="s">
-        <v>63</v>
       </c>
       <c r="I22">
         <v>6004</v>
@@ -2636,28 +2555,28 @@
     </row>
     <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>66</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>67</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>68</v>
-      </c>
-      <c r="H23" t="s">
-        <v>69</v>
       </c>
       <c r="I23">
         <v>6005</v>
@@ -2680,28 +2599,28 @@
     </row>
     <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
         <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>41</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>42</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>43</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
       </c>
       <c r="I24">
         <v>6001</v>
@@ -2724,28 +2643,28 @@
     </row>
     <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
         <v>47</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>48</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>49</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>50</v>
-      </c>
-      <c r="H25" t="s">
-        <v>51</v>
       </c>
       <c r="I25">
         <v>6002</v>
@@ -2768,28 +2687,28 @@
     </row>
     <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
         <v>53</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>54</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>55</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>56</v>
-      </c>
-      <c r="H26" t="s">
-        <v>57</v>
       </c>
       <c r="I26">
         <v>6003</v>
@@ -2812,28 +2731,28 @@
     </row>
     <row r="27" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>59</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>60</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>61</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>62</v>
-      </c>
-      <c r="H27" t="s">
-        <v>63</v>
       </c>
       <c r="I27">
         <v>6004</v>
@@ -2856,28 +2775,28 @@
     </row>
     <row r="28" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
         <v>65</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>66</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>67</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>68</v>
-      </c>
-      <c r="H28" t="s">
-        <v>69</v>
       </c>
       <c r="I28">
         <v>6005</v>
@@ -2899,17 +2818,17 @@
       <c r="X28" s="34"/>
     </row>
     <row r="29" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="7"/>
       <c r="K29" s="1"/>
     </row>
@@ -3023,7 +2942,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="K35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3049,7 +2968,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="K36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3067,7 +2986,7 @@
     </row>
     <row r="37" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="12"/>
@@ -3077,7 +2996,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="K37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L37" s="2"/>
       <c r="N37" s="2"/>
@@ -3094,7 +3013,7 @@
     </row>
     <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3104,7 +3023,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="K38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3122,7 +3041,7 @@
     </row>
     <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="K39" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -3142,7 +3061,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3162,7 +3081,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3182,7 +3101,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3202,7 +3121,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3226,7 +3145,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -3252,7 +3171,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L45" s="37"/>
       <c r="M45" s="37"/>
@@ -3380,9 +3299,9 @@
     </row>
     <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="54" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="32"/>
@@ -3544,6 +3463,12 @@
       <c r="Q72" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.47244094488188981" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="55" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
